--- a/Madhesh-Research-01.xlsx
+++ b/Madhesh-Research-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Local_level_indicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BDC506-DF34-4A3D-A2B7-04ED5E0161C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7815384-0ED5-4203-8FDC-2CF91BCF282D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,7 +971,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
